--- a/Nhom6_KiemThuWebsiteBanNon/TestCase/Nhom6_TestCase.xlsx
+++ b/Nhom6_KiemThuWebsiteBanNon/TestCase/Nhom6_TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="Tìm Kiếm" sheetId="10" r:id="rId3"/>
     <sheet name="Thêm người dùng" sheetId="11" r:id="rId4"/>
     <sheet name="Đăng Ký" sheetId="12" r:id="rId5"/>
-    <sheet name="Thêm nhà sản xuất" sheetId="13" r:id="rId6"/>
-    <sheet name="Tìm Kiếm Người Dùng" sheetId="14" r:id="rId7"/>
+    <sheet name="Sửa Nhà Sản Xuất" sheetId="15" r:id="rId6"/>
+    <sheet name="Thêm nhà sản xuất" sheetId="13" r:id="rId7"/>
+    <sheet name="Tìm Kiếm Người Dùng" sheetId="14" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Đăng nhập'!$A$7:$H$8</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="261">
   <si>
     <t>Function Test</t>
   </si>
@@ -897,12 +898,59 @@
   <si>
     <t>TC_ QL_timkiemND_09</t>
   </si>
+  <si>
+    <t>Sửa Nhà Sản Xuất - http://webbannon.somee.com/Admin_QLNSX/QuanLyNhaSanXuat</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_01</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>1. Truy cập vào http://webbannon.somee.com/Admin_QLNSX/QuanLyNhaSanXuat
+2. Ấn vào nút sửa 
+3. Cập nhập nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất: Test
+Nước Sản Xuất:Test</t>
+  </si>
+  <si>
+    <t>Thông báo "(CẬP NHẬT NHÀ SẢN XUẤT THÀNH CÔNG )"</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_02</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập tên nhà sản xuất, bỏ trống nước sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất: Test
+Nước Sản Xuất:</t>
+  </si>
+  <si>
+    <t>Thông báo "Tên Nhà Sản Xuất ( Tên Nhà Sản Xuất Không Được Bỏ Trống )"</t>
+  </si>
+  <si>
+    <t>TC_SuaNhaSanXuat_03</t>
+  </si>
+  <si>
+    <t>Sửa nhà sản xuất, nhập nước sản xuất, bỏ trống tên nhà sản xuất</t>
+  </si>
+  <si>
+    <t>Tên Nhà Sản Xuất:
+Nước Sản Xuất:Test</t>
+  </si>
+  <si>
+    <t>Thông báo "Nước Sản Xuất ( Nước Sản Xuất Không Được Bỏ Trống )"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1138,6 +1186,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="MS PGothic"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1532,14 +1585,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1802,6 +1856,38 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1862,28 +1948,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal_Sheet1" xfId="2"/>
+    <cellStyle name="Note" xfId="5" builtinId="10"/>
     <cellStyle name="Note 2" xfId="3"/>
     <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="4"/>
   </cellStyles>
@@ -2100,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F8:H20"/>
     </sheetView>
   </sheetViews>
@@ -2122,15 +2192,15 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -2154,15 +2224,15 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -2186,15 +2256,15 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="100">
+      <c r="B3" s="112">
         <v>44158</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="98"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -30234,47 +30304,47 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5">
+    <row r="1" spans="1:8" ht="29.25">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="110"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="117">
         <v>44158</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="30"/>
@@ -30317,43 +30387,43 @@
       <c r="H5" s="33"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="122" t="s">
+      <c r="E7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="122" t="s">
+      <c r="H7" s="98" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="127.5" customHeight="1">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="99" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="40" t="s">
@@ -30362,41 +30432,41 @@
       <c r="C8" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="124"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="40" t="s">
         <v>69</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="40"/>
-      <c r="H8" s="125"/>
+      <c r="H8" s="101"/>
     </row>
     <row r="9" spans="1:8" s="43" customFormat="1" ht="99.75">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="102" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="124"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="40" t="s">
         <v>70</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="40"/>
-      <c r="H9" s="125"/>
+      <c r="H9" s="101"/>
     </row>
     <row r="10" spans="1:8" s="44" customFormat="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
     </row>
     <row r="11" spans="1:8" s="44" customFormat="1">
       <c r="A11" s="42"/>
@@ -30466,41 +30536,41 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="55"/>
@@ -30716,41 +30786,41 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="55"/>
@@ -30953,7 +31023,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H21"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30971,43 +31041,43 @@
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="125"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" thickBot="1">
       <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="4" spans="1:8" ht="26.25" thickBot="1">
       <c r="A4" s="70"/>
@@ -31373,6 +31443,222 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.25">
+      <c r="A2" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="120">
+        <v>44158</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+    </row>
+    <row r="4" spans="1:8" ht="25.5">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62">
+        <f>COUNTIF(F8:F10,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="62">
+        <f>COUNTIF(F8:F10,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="62">
+        <f>COUNTIF(F8:F10,"Untested")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="62">
+        <f>COUNTA(F8:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="58"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.25">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+    </row>
+    <row r="7" spans="1:8" ht="38.25">
+      <c r="A7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="77.25" customHeight="1">
+      <c r="A8" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
+    </row>
+    <row r="9" spans="1:8" ht="93" customHeight="1">
+      <c r="A9" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>256</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="67"/>
+    </row>
+    <row r="10" spans="1:8" ht="69.75" customHeight="1">
+      <c r="A10" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:G6">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F7:G7 G8"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F10">
+      <formula1>$B$5:$D$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -31395,41 +31681,41 @@
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="122" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8" ht="14.25">
       <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
     </row>
     <row r="4" spans="1:8" ht="14.25">
       <c r="A4" s="55"/>
@@ -31737,7 +32023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H19"/>
   <sheetViews>
@@ -31757,41 +32043,41 @@
       <c r="A4" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8" ht="14.25">
       <c r="A5" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="119" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="55"/>

--- a/Nhom6_KiemThuWebsiteBanNon/TestCase/Nhom6_TestCase.xlsx
+++ b/Nhom6_KiemThuWebsiteBanNon/TestCase/Nhom6_TestCase.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Nhom6_KiemThuWebsiteBanNon\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\up git\bao_cao_kiem_thu_chat_luong_phan_mem\Nhom6_KiemThuWebsiteBanNon\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -2170,9 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F8:H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30288,8 +30288,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -30379,8 +30379,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="34">
-        <f>COUNTA(F8:F9)</f>
-        <v>0</v>
+        <f>COUNTA(A8:A9)</f>
+        <v>2</v>
       </c>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
@@ -30521,8 +30521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F8:H12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30605,8 +30605,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="62">
-        <f>COUNTA(F8:F16)</f>
-        <v>0</v>
+        <f>COUNTA(A8:A12)</f>
+        <v>5</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="63"/>
@@ -30773,7 +30773,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F8:H12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30855,8 +30855,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="62">
-        <f>COUNTA(F8:F21)</f>
-        <v>0</v>
+        <f>COUNTA(A8:A12)</f>
+        <v>5</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="63"/>
@@ -31023,7 +31023,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31100,10 +31100,10 @@
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="70"/>
       <c r="B5" s="74">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" s="74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="74">
         <v>0</v>
@@ -31446,8 +31446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31535,8 +31535,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="62">
-        <f>COUNTA(F8:F10)</f>
-        <v>0</v>
+        <f>COUNTA(A8:A10)</f>
+        <v>3</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="63"/>
@@ -31662,8 +31662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31750,8 +31750,8 @@
         <v>0</v>
       </c>
       <c r="E5" s="62">
-        <f>COUNTA(F8:F20)</f>
-        <v>0</v>
+        <f>COUNTA(A8:A15)</f>
+        <v>8</v>
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="63"/>
@@ -32027,8 +32027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:H19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32112,8 +32112,8 @@
         <v>0</v>
       </c>
       <c r="E8" s="62">
-        <f>COUNTA(F11:F19)</f>
-        <v>0</v>
+        <f>COUNTA(A11:A19)</f>
+        <v>9</v>
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="63"/>
